--- a/data/pca/factorExposure/factorExposure_2010-03-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01435773077163422</v>
+        <v>-0.01688306955976331</v>
       </c>
       <c r="C2">
-        <v>0.002969304941821116</v>
+        <v>0.000978057646210779</v>
       </c>
       <c r="D2">
-        <v>-0.01120251929958073</v>
+        <v>0.007966255880885096</v>
       </c>
       <c r="E2">
-        <v>-0.01549729936899611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0002037725368999948</v>
+      </c>
+      <c r="F2">
+        <v>0.01000601943211956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1244105062319517</v>
+        <v>-0.09347141201792775</v>
       </c>
       <c r="C4">
-        <v>0.03373095581854466</v>
+        <v>0.01568335456070265</v>
       </c>
       <c r="D4">
-        <v>-0.05840843494687287</v>
+        <v>0.08411704862752892</v>
       </c>
       <c r="E4">
-        <v>-0.01154696361956011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02988878110732024</v>
+      </c>
+      <c r="F4">
+        <v>-0.03137330587298078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.117916308356422</v>
+        <v>-0.1548765992194589</v>
       </c>
       <c r="C6">
-        <v>-0.0180756662372098</v>
+        <v>0.02458660158661963</v>
       </c>
       <c r="D6">
-        <v>-0.0006741363263374411</v>
+        <v>-0.02265905531859685</v>
       </c>
       <c r="E6">
-        <v>-0.01916831199839374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01023685050051126</v>
+      </c>
+      <c r="F6">
+        <v>-0.04901474497633745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0727870947832303</v>
+        <v>-0.05934950181960399</v>
       </c>
       <c r="C7">
-        <v>0.008550968211424885</v>
+        <v>-0.001082950603069255</v>
       </c>
       <c r="D7">
-        <v>-0.06900662436624071</v>
+        <v>0.05270234247885999</v>
       </c>
       <c r="E7">
-        <v>-0.05232188612277806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01394406070736839</v>
+      </c>
+      <c r="F7">
+        <v>-0.04698720349651138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05271093651175011</v>
+        <v>-0.05792073819963951</v>
       </c>
       <c r="C8">
-        <v>0.003868742943369935</v>
+        <v>-0.01344366785323174</v>
       </c>
       <c r="D8">
-        <v>-0.02718899492842917</v>
+        <v>0.03231223791594908</v>
       </c>
       <c r="E8">
-        <v>-0.02514386712209681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01516503199072439</v>
+      </c>
+      <c r="F8">
+        <v>0.02757654414089465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09385581426145929</v>
+        <v>-0.07134564508114918</v>
       </c>
       <c r="C9">
-        <v>0.04272211089406076</v>
+        <v>0.01173421777991544</v>
       </c>
       <c r="D9">
-        <v>-0.03734965218413073</v>
+        <v>0.08393109829950901</v>
       </c>
       <c r="E9">
-        <v>-0.02205152831489353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02417214229370467</v>
+      </c>
+      <c r="F9">
+        <v>-0.04948848689610307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08192209958789776</v>
+        <v>-0.09539498571862033</v>
       </c>
       <c r="C10">
-        <v>-0.1302822400461972</v>
+        <v>0.01804691976530334</v>
       </c>
       <c r="D10">
-        <v>0.1286986223529178</v>
+        <v>-0.1697104890893187</v>
       </c>
       <c r="E10">
-        <v>-0.002438415948604996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.03980734234030046</v>
+      </c>
+      <c r="F10">
+        <v>0.05108347256052749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08455140297787619</v>
+        <v>-0.08718573359328426</v>
       </c>
       <c r="C11">
-        <v>0.01863340758996776</v>
+        <v>0.01141637455887069</v>
       </c>
       <c r="D11">
-        <v>-0.05385289469015591</v>
+        <v>0.1158515059761276</v>
       </c>
       <c r="E11">
-        <v>-0.04587569065493888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04803169786013573</v>
+      </c>
+      <c r="F11">
+        <v>-0.01965396577768953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.090116502169636</v>
+        <v>-0.09162467236947217</v>
       </c>
       <c r="C12">
-        <v>0.02899341321369604</v>
+        <v>0.008878518374247734</v>
       </c>
       <c r="D12">
-        <v>-0.07560998499281667</v>
+        <v>0.1250817479457529</v>
       </c>
       <c r="E12">
-        <v>-0.05059651075536649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04814663870281042</v>
+      </c>
+      <c r="F12">
+        <v>-0.02005692181797472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04329888174315061</v>
+        <v>-0.04302836448650942</v>
       </c>
       <c r="C13">
-        <v>0.03763975759643756</v>
+        <v>0.003993780119618968</v>
       </c>
       <c r="D13">
-        <v>0.0003128889552725717</v>
+        <v>0.04776096701735928</v>
       </c>
       <c r="E13">
-        <v>-0.008230483720971592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01301231427022948</v>
+      </c>
+      <c r="F13">
+        <v>-0.01255395426185378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02802828515879184</v>
+        <v>-0.02250217980654209</v>
       </c>
       <c r="C14">
-        <v>-0.0001686142628536462</v>
+        <v>0.01411429071111207</v>
       </c>
       <c r="D14">
-        <v>-0.008249438891164074</v>
+        <v>0.03251768893906733</v>
       </c>
       <c r="E14">
-        <v>-0.006042762520801136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01777119492678642</v>
+      </c>
+      <c r="F14">
+        <v>-0.01802425056059762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0245380121311516</v>
+        <v>-0.03149300377584098</v>
       </c>
       <c r="C15">
-        <v>0.01964651420090978</v>
+        <v>0.005235680325150117</v>
       </c>
       <c r="D15">
-        <v>-0.001531570311663971</v>
+        <v>0.04563653343533528</v>
       </c>
       <c r="E15">
-        <v>-0.01950940688698265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.007761225534397936</v>
+      </c>
+      <c r="F15">
+        <v>-0.02909929425960558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09045952519820048</v>
+        <v>-0.07274225449158409</v>
       </c>
       <c r="C16">
-        <v>0.01219332502634815</v>
+        <v>0.002842472975777974</v>
       </c>
       <c r="D16">
-        <v>-0.06838028531238848</v>
+        <v>0.1202831211247492</v>
       </c>
       <c r="E16">
-        <v>-0.05512377890450736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06287716051560521</v>
+      </c>
+      <c r="F16">
+        <v>-0.02714544556070906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02419704286120182</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003893044646891006</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.01945138462594417</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.005991836996074763</v>
+      </c>
+      <c r="F18">
+        <v>0.01552815555570881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04931781141200589</v>
+        <v>-0.05991637244331095</v>
       </c>
       <c r="C20">
-        <v>-0.004046138602330897</v>
+        <v>0.0002849961704690101</v>
       </c>
       <c r="D20">
-        <v>-0.04342934813840117</v>
+        <v>0.07597680627799661</v>
       </c>
       <c r="E20">
-        <v>0.001085203072158228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05539707176165617</v>
+      </c>
+      <c r="F20">
+        <v>-0.0276891269557817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0234692082423906</v>
+        <v>-0.0388835758936523</v>
       </c>
       <c r="C21">
-        <v>-0.00638968869114562</v>
+        <v>0.006644681171604924</v>
       </c>
       <c r="D21">
-        <v>-0.004744665325285934</v>
+        <v>0.03545030679144073</v>
       </c>
       <c r="E21">
-        <v>0.02688971987811226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.008310107250151454</v>
+      </c>
+      <c r="F21">
+        <v>0.01860089208366299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02958478290276911</v>
+        <v>-0.04352658135490814</v>
       </c>
       <c r="C22">
-        <v>-0.01681524988638125</v>
+        <v>0.001074421282575171</v>
       </c>
       <c r="D22">
-        <v>0.02503467827280125</v>
+        <v>-0.0003361470921788273</v>
       </c>
       <c r="E22">
-        <v>-0.06125311404217672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0276462120915378</v>
+      </c>
+      <c r="F22">
+        <v>0.002499974640293542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02976670532725855</v>
+        <v>-0.04357879266780443</v>
       </c>
       <c r="C23">
-        <v>-0.01691593442436224</v>
+        <v>0.001096303490882974</v>
       </c>
       <c r="D23">
-        <v>0.02447917205015106</v>
+        <v>-0.000210467087887237</v>
       </c>
       <c r="E23">
-        <v>-0.06309956353720332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0279945639178494</v>
+      </c>
+      <c r="F23">
+        <v>0.002036689919272688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09509947634628303</v>
+        <v>-0.07922540781282854</v>
       </c>
       <c r="C24">
-        <v>0.01780402975879605</v>
+        <v>0.002995810991375825</v>
       </c>
       <c r="D24">
-        <v>-0.07289081476574077</v>
+        <v>0.1200417874014964</v>
       </c>
       <c r="E24">
-        <v>-0.04397189278149014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05121307137250958</v>
+      </c>
+      <c r="F24">
+        <v>-0.02136588439272299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09652132619207306</v>
+        <v>-0.0846078097813163</v>
       </c>
       <c r="C25">
-        <v>0.009488998191605884</v>
+        <v>0.00518188245060865</v>
       </c>
       <c r="D25">
-        <v>-0.05488402476000939</v>
+        <v>0.1085663447162115</v>
       </c>
       <c r="E25">
-        <v>-0.05082576557954713</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03365572773218479</v>
+      </c>
+      <c r="F25">
+        <v>-0.02800061879150281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03693883010490845</v>
+        <v>-0.05483524279473293</v>
       </c>
       <c r="C26">
-        <v>-0.02918046649297634</v>
+        <v>0.01453370791328661</v>
       </c>
       <c r="D26">
-        <v>0.003957142832967498</v>
+        <v>0.04057207937622335</v>
       </c>
       <c r="E26">
-        <v>-0.001178131996489705</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02616474114052585</v>
+      </c>
+      <c r="F26">
+        <v>0.009274679540134889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08599821869213434</v>
+        <v>-0.143989355867568</v>
       </c>
       <c r="C28">
-        <v>-0.1673555454393754</v>
+        <v>0.01695761943530243</v>
       </c>
       <c r="D28">
-        <v>0.269731612570291</v>
+        <v>-0.2645145424363261</v>
       </c>
       <c r="E28">
-        <v>-0.01516558463213557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0699685262219</v>
+      </c>
+      <c r="F28">
+        <v>-0.02693573911208716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02774349357810432</v>
+        <v>-0.02725922022868228</v>
       </c>
       <c r="C29">
-        <v>0.01032467082267548</v>
+        <v>0.00831681094486534</v>
       </c>
       <c r="D29">
-        <v>-0.0005972197507010737</v>
+        <v>0.03147309180557371</v>
       </c>
       <c r="E29">
-        <v>-0.0100195794632156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01139252186279195</v>
+      </c>
+      <c r="F29">
+        <v>0.01228483708873821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1173948631668134</v>
+        <v>-0.06222823859342681</v>
       </c>
       <c r="C30">
-        <v>0.06297844823514155</v>
+        <v>0.00429384635810951</v>
       </c>
       <c r="D30">
-        <v>-0.06871231576739735</v>
+        <v>0.08753276436107259</v>
       </c>
       <c r="E30">
-        <v>-0.04592464628478952</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02397042394946192</v>
+      </c>
+      <c r="F30">
+        <v>-0.09858461555211206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02744590531097195</v>
+        <v>-0.0482011135106287</v>
       </c>
       <c r="C31">
-        <v>0.002442150824175122</v>
+        <v>0.01500870409730541</v>
       </c>
       <c r="D31">
-        <v>-0.0287038244552495</v>
+        <v>0.02612494114111086</v>
       </c>
       <c r="E31">
-        <v>-0.01850611345123018</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02763233294552829</v>
+      </c>
+      <c r="F31">
+        <v>0.00596783700694106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06169648807355917</v>
+        <v>-0.04787221851115234</v>
       </c>
       <c r="C32">
-        <v>-0.00790853275782147</v>
+        <v>-0.0006526470810038976</v>
       </c>
       <c r="D32">
-        <v>-0.03087447561562433</v>
+        <v>0.03147939819255568</v>
       </c>
       <c r="E32">
-        <v>-0.01033048891649899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.03032483066622862</v>
+      </c>
+      <c r="F32">
+        <v>-0.006804671827086863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.10277088560087</v>
+        <v>-0.08929680074648853</v>
       </c>
       <c r="C33">
-        <v>0.04513910570908317</v>
+        <v>0.00840347840742648</v>
       </c>
       <c r="D33">
-        <v>-0.05107429148144056</v>
+        <v>0.0976568578746214</v>
       </c>
       <c r="E33">
-        <v>-0.0938138849637684</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04680230673460179</v>
+      </c>
+      <c r="F33">
+        <v>-0.03951035483180278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0865855641156065</v>
+        <v>-0.06673602394985342</v>
       </c>
       <c r="C34">
-        <v>0.01252863816542096</v>
+        <v>0.01181748387971348</v>
       </c>
       <c r="D34">
-        <v>-0.06544249808473156</v>
+        <v>0.1009648469263317</v>
       </c>
       <c r="E34">
-        <v>-0.05105017624790135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03568797080351755</v>
+      </c>
+      <c r="F34">
+        <v>-0.03818292793420982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01385843737211858</v>
+        <v>-0.02448628312725878</v>
       </c>
       <c r="C35">
-        <v>0.01430618986701998</v>
+        <v>0.002311816885328</v>
       </c>
       <c r="D35">
-        <v>-0.002581310652240387</v>
+        <v>0.01129141878890389</v>
       </c>
       <c r="E35">
-        <v>-0.006530305125292597</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01074216422090496</v>
+      </c>
+      <c r="F35">
+        <v>-0.008772279351463077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02426121351904855</v>
+        <v>-0.02436659336276193</v>
       </c>
       <c r="C36">
-        <v>0.010972880272532</v>
+        <v>0.007520901253668782</v>
       </c>
       <c r="D36">
-        <v>-0.0006871017635513793</v>
+        <v>0.0375686208092146</v>
       </c>
       <c r="E36">
-        <v>-0.0009136162059037077</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01712453717635168</v>
+      </c>
+      <c r="F36">
+        <v>-0.01371282684492454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.006735998879217199</v>
+        <v>-0.001493841212934857</v>
       </c>
       <c r="C38">
-        <v>0.002328464600870485</v>
+        <v>0.000226739883744504</v>
       </c>
       <c r="D38">
-        <v>-0.004258693598926435</v>
+        <v>0.0008717234501826578</v>
       </c>
       <c r="E38">
-        <v>-0.003753056191696559</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001211436169992287</v>
+      </c>
+      <c r="F38">
+        <v>0.001063020433773933</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.144221843172362</v>
+        <v>-0.1074427919702913</v>
       </c>
       <c r="C39">
-        <v>0.05011270992602081</v>
+        <v>0.01651137860306065</v>
       </c>
       <c r="D39">
-        <v>-0.1021472379191606</v>
+        <v>0.155507259767219</v>
       </c>
       <c r="E39">
-        <v>-0.08163046222799587</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0615417623676406</v>
+      </c>
+      <c r="F39">
+        <v>-0.02337269842168757</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.008441570448432517</v>
+        <v>-0.03724123613464846</v>
       </c>
       <c r="C40">
-        <v>0.005037269255757932</v>
+        <v>0.007130133488277523</v>
       </c>
       <c r="D40">
-        <v>-0.01885533432701722</v>
+        <v>0.03342092501720091</v>
       </c>
       <c r="E40">
-        <v>0.01225254964819318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.002669017081885485</v>
+      </c>
+      <c r="F40">
+        <v>0.01322571000102735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01960694023066077</v>
+        <v>-0.02630441840232736</v>
       </c>
       <c r="C41">
-        <v>-0.02818628726511439</v>
+        <v>0.006503141505772079</v>
       </c>
       <c r="D41">
-        <v>-0.006602843676848828</v>
+        <v>0.01138010757380193</v>
       </c>
       <c r="E41">
-        <v>-0.009059263319985324</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01242794808284416</v>
+      </c>
+      <c r="F41">
+        <v>0.009046919076669139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0278472449335748</v>
+        <v>-0.0404015700630559</v>
       </c>
       <c r="C43">
-        <v>-0.02794528463270227</v>
+        <v>0.006647699882591272</v>
       </c>
       <c r="D43">
-        <v>-0.0183463549404783</v>
+        <v>0.02113842797703112</v>
       </c>
       <c r="E43">
-        <v>-0.03465266572310685</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02420674129269693</v>
+      </c>
+      <c r="F43">
+        <v>0.01491082195029403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1385497178962111</v>
+        <v>-0.07557426065843902</v>
       </c>
       <c r="C44">
-        <v>0.07064891335156635</v>
+        <v>0.02122742542872402</v>
       </c>
       <c r="D44">
-        <v>-0.08462546623318425</v>
+        <v>0.09501538900501767</v>
       </c>
       <c r="E44">
-        <v>-0.06232520230702239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07445180742726876</v>
+      </c>
+      <c r="F44">
+        <v>-0.1795324710817199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01401284586887448</v>
+        <v>-0.02298875973650458</v>
       </c>
       <c r="C46">
-        <v>-0.02375079701658743</v>
+        <v>0.003514324332818525</v>
       </c>
       <c r="D46">
-        <v>0.005607783178800257</v>
+        <v>0.01238585799450058</v>
       </c>
       <c r="E46">
-        <v>-0.0346187643865536</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02221767122797863</v>
+      </c>
+      <c r="F46">
+        <v>-0.00173702736423431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0374667556171121</v>
+        <v>-0.05154907440919082</v>
       </c>
       <c r="C47">
-        <v>-0.01320590070098602</v>
+        <v>0.003177133322846454</v>
       </c>
       <c r="D47">
-        <v>-0.00264460346496797</v>
+        <v>0.01371357886862436</v>
       </c>
       <c r="E47">
-        <v>-0.0004131916935548421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02264296059950417</v>
+      </c>
+      <c r="F47">
+        <v>0.04161885400908356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03822706444188916</v>
+        <v>-0.04737214426601149</v>
       </c>
       <c r="C48">
-        <v>0.01152128734772221</v>
+        <v>0.002603422477932388</v>
       </c>
       <c r="D48">
-        <v>0.005016437621460317</v>
+        <v>0.05112101210809512</v>
       </c>
       <c r="E48">
-        <v>-0.007036004536120138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.005041952582814354</v>
+      </c>
+      <c r="F48">
+        <v>-0.009575251116598767</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2231229955758823</v>
+        <v>-0.2027419626926782</v>
       </c>
       <c r="C49">
-        <v>-0.05872361797061509</v>
+        <v>0.01752892835698257</v>
       </c>
       <c r="D49">
-        <v>-0.03625933649277548</v>
+        <v>-0.009224494743116747</v>
       </c>
       <c r="E49">
-        <v>0.01500379761663029</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.03356346938025041</v>
+      </c>
+      <c r="F49">
+        <v>-0.02772798792146431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03691354771750301</v>
+        <v>-0.04818827644383131</v>
       </c>
       <c r="C50">
-        <v>-0.005236132315416166</v>
+        <v>0.01104049333578108</v>
       </c>
       <c r="D50">
-        <v>-0.03390173914733538</v>
+        <v>0.02583653750763807</v>
       </c>
       <c r="E50">
-        <v>-0.01365936668110374</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02969566152882949</v>
+      </c>
+      <c r="F50">
+        <v>-0.006008927190859618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.009333167803822151</v>
+        <v>-0.002127188354066608</v>
       </c>
       <c r="C51">
-        <v>-0.009063943001966435</v>
+        <v>0.0005349725357446703</v>
       </c>
       <c r="D51">
-        <v>0.01326519851212639</v>
+        <v>-0.002247087072284829</v>
       </c>
       <c r="E51">
-        <v>-0.01541900898444854</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-5.144001052420274e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.004483633986682024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1307572560307137</v>
+        <v>-0.1447653308749656</v>
       </c>
       <c r="C52">
-        <v>0.07223302763934021</v>
+        <v>0.01385287047825251</v>
       </c>
       <c r="D52">
-        <v>-0.06566989492438566</v>
+        <v>0.05073937976219142</v>
       </c>
       <c r="E52">
-        <v>-0.003146749466402954</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.0247831539986096</v>
+      </c>
+      <c r="F52">
+        <v>-0.03509323956864805</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.155032117438212</v>
+        <v>-0.1739356825318672</v>
       </c>
       <c r="C53">
-        <v>0.01467000923561241</v>
+        <v>0.01680063540835719</v>
       </c>
       <c r="D53">
-        <v>-0.01618776823828275</v>
+        <v>0.01049747490360247</v>
       </c>
       <c r="E53">
-        <v>0.01100436868779491</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0357274565434079</v>
+      </c>
+      <c r="F53">
+        <v>-0.06445118941537537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04854953344155586</v>
+        <v>-0.02203800875023266</v>
       </c>
       <c r="C54">
-        <v>0.001961945703515751</v>
+        <v>0.01220655700632034</v>
       </c>
       <c r="D54">
-        <v>-0.02064497540581329</v>
+        <v>0.03346002456263956</v>
       </c>
       <c r="E54">
-        <v>-0.01887561323378613</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01508699086419239</v>
+      </c>
+      <c r="F54">
+        <v>0.001835218582803525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08610529894250644</v>
+        <v>-0.1143240877436408</v>
       </c>
       <c r="C55">
-        <v>0.02969363869894932</v>
+        <v>0.01547089245902603</v>
       </c>
       <c r="D55">
-        <v>-0.00471576999443971</v>
+        <v>0.01055412383744945</v>
       </c>
       <c r="E55">
-        <v>-0.03965943601610153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03124454375213055</v>
+      </c>
+      <c r="F55">
+        <v>-0.04278164599995149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1583420315401149</v>
+        <v>-0.1774487698252297</v>
       </c>
       <c r="C56">
-        <v>0.01576600984367966</v>
+        <v>0.01425047627839415</v>
       </c>
       <c r="D56">
-        <v>-0.04611529626682627</v>
+        <v>0.007153151303229235</v>
       </c>
       <c r="E56">
-        <v>-0.02495911816586172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04125341543872827</v>
+      </c>
+      <c r="F56">
+        <v>-0.04358669104297219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04123963731713432</v>
+        <v>-0.0455431064281848</v>
       </c>
       <c r="C58">
-        <v>-0.01376127616630951</v>
+        <v>0.001286422999970736</v>
       </c>
       <c r="D58">
-        <v>-0.003946113015097181</v>
+        <v>0.06743550678449256</v>
       </c>
       <c r="E58">
-        <v>0.01453817445123961</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02528318625376498</v>
+      </c>
+      <c r="F58">
+        <v>0.0416607771634526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1529599904795607</v>
+        <v>-0.1728257273463342</v>
       </c>
       <c r="C59">
-        <v>-0.1601662410402014</v>
+        <v>0.01751009709442158</v>
       </c>
       <c r="D59">
-        <v>0.2285789919521956</v>
+        <v>-0.2222287364298818</v>
       </c>
       <c r="E59">
-        <v>-0.02785802336915019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04940023745676052</v>
+      </c>
+      <c r="F59">
+        <v>0.02686251679275405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.278901950245137</v>
+        <v>-0.2354324947942136</v>
       </c>
       <c r="C60">
-        <v>0.05506657972252192</v>
+        <v>-0.004362214305397654</v>
       </c>
       <c r="D60">
-        <v>-0.1037053502978452</v>
+        <v>0.04646875493741472</v>
       </c>
       <c r="E60">
-        <v>0.07213163575411104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.0120712561988038</v>
+      </c>
+      <c r="F60">
+        <v>0.03171030898495976</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1149958046131318</v>
+        <v>-0.08306093423310801</v>
       </c>
       <c r="C61">
-        <v>0.04432743476704307</v>
+        <v>0.012641529372654</v>
       </c>
       <c r="D61">
-        <v>-0.0549272183841826</v>
+        <v>0.1153997617216818</v>
       </c>
       <c r="E61">
-        <v>-0.06476702054959806</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.0412869805953541</v>
+      </c>
+      <c r="F61">
+        <v>-0.01342651494807369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1623580656370525</v>
+        <v>-0.1700382181278076</v>
       </c>
       <c r="C62">
-        <v>0.01132066076472115</v>
+        <v>0.01781344995470596</v>
       </c>
       <c r="D62">
-        <v>-0.02763765955106896</v>
+        <v>0.01108651071236012</v>
       </c>
       <c r="E62">
-        <v>-0.007688586761510807</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03724604693705356</v>
+      </c>
+      <c r="F62">
+        <v>-0.02409665971841744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04158617137830584</v>
+        <v>-0.04212801597269059</v>
       </c>
       <c r="C63">
-        <v>0.004458463235155284</v>
+        <v>0.002622940294463417</v>
       </c>
       <c r="D63">
-        <v>0.00682266798139503</v>
+        <v>0.05456460078322339</v>
       </c>
       <c r="E63">
-        <v>-0.02290661287868665</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02086045644596769</v>
+      </c>
+      <c r="F63">
+        <v>-0.009014893321718514</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09307585928133766</v>
+        <v>-0.1116158149108764</v>
       </c>
       <c r="C64">
-        <v>-0.002186811639665723</v>
+        <v>0.01106453462177253</v>
       </c>
       <c r="D64">
-        <v>-0.01890364784927301</v>
+        <v>0.04368459921456853</v>
       </c>
       <c r="E64">
-        <v>-0.006596041746313214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02110162054144154</v>
+      </c>
+      <c r="F64">
+        <v>-0.02613138341789569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1180676160022592</v>
+        <v>-0.146039508950346</v>
       </c>
       <c r="C65">
-        <v>0.0116010828818545</v>
+        <v>0.0311876738463108</v>
       </c>
       <c r="D65">
-        <v>0.01529597839550216</v>
+        <v>-0.0429920724815463</v>
       </c>
       <c r="E65">
-        <v>0.004530836152437028</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0006582910220051772</v>
+      </c>
+      <c r="F65">
+        <v>-0.04611029595033677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1662920152207917</v>
+        <v>-0.128344136179364</v>
       </c>
       <c r="C66">
-        <v>0.0473647741264831</v>
+        <v>0.0142638406196904</v>
       </c>
       <c r="D66">
-        <v>-0.1195277655021871</v>
+        <v>0.1446060746505133</v>
       </c>
       <c r="E66">
-        <v>-0.09192187254567639</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06856872813450401</v>
+      </c>
+      <c r="F66">
+        <v>-0.02818404621268895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06825943979427244</v>
+        <v>-0.06230953020740138</v>
       </c>
       <c r="C67">
-        <v>0.03539551913846437</v>
+        <v>0.002668101692650299</v>
       </c>
       <c r="D67">
-        <v>-0.009161740028890549</v>
+        <v>0.05253867428679234</v>
       </c>
       <c r="E67">
-        <v>-0.06983370416353935</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01679809793094143</v>
+      </c>
+      <c r="F67">
+        <v>0.03059171067212346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07835073880180803</v>
+        <v>-0.1175456180317091</v>
       </c>
       <c r="C68">
-        <v>-0.1475588977057981</v>
+        <v>0.02740668592512671</v>
       </c>
       <c r="D68">
-        <v>0.2360474658703882</v>
+        <v>-0.2605300178092227</v>
       </c>
       <c r="E68">
-        <v>-0.007528113697868198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08755400692986313</v>
+      </c>
+      <c r="F68">
+        <v>-0.02866713155895234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03343673816664162</v>
+        <v>-0.03916759606172247</v>
       </c>
       <c r="C69">
-        <v>0.007858840906468158</v>
+        <v>0.0008578149806980762</v>
       </c>
       <c r="D69">
-        <v>0.01280981380174564</v>
+        <v>0.009211871851603163</v>
       </c>
       <c r="E69">
-        <v>-0.02664697939790345</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02406971849261608</v>
+      </c>
+      <c r="F69">
+        <v>0.007506679901962874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02380182082208957</v>
+        <v>-0.06221495439948585</v>
       </c>
       <c r="C70">
-        <v>0.007723087398322398</v>
+        <v>-0.0287166532615345</v>
       </c>
       <c r="D70">
-        <v>0.03627040964738359</v>
+        <v>0.02975161753461105</v>
       </c>
       <c r="E70">
-        <v>-0.02859712132358721</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.04904192418958685</v>
+      </c>
+      <c r="F70">
+        <v>0.2468564860745335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09177784277967953</v>
+        <v>-0.1371376371082635</v>
       </c>
       <c r="C71">
-        <v>-0.1557470181123783</v>
+        <v>0.03182141756010225</v>
       </c>
       <c r="D71">
-        <v>0.2542520121659727</v>
+        <v>-0.2751896645918733</v>
       </c>
       <c r="E71">
-        <v>-0.01849411043311536</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09752798701439216</v>
+      </c>
+      <c r="F71">
+        <v>-0.0341837615795215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.135445242586753</v>
+        <v>-0.1410567862430064</v>
       </c>
       <c r="C72">
-        <v>-0.03173522757338341</v>
+        <v>0.02486123688590303</v>
       </c>
       <c r="D72">
-        <v>0.003628455053127767</v>
+        <v>0.00451452305787016</v>
       </c>
       <c r="E72">
-        <v>-0.01296902996233285</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04377941590484451</v>
+      </c>
+      <c r="F72">
+        <v>-0.02799407302281858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2329268396634187</v>
+        <v>-0.2024131908885328</v>
       </c>
       <c r="C73">
-        <v>-0.01404011284800781</v>
+        <v>0.01165225454943902</v>
       </c>
       <c r="D73">
-        <v>-0.03875637945552841</v>
+        <v>0.01704337052740982</v>
       </c>
       <c r="E73">
-        <v>-0.0636532538206573</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06632791102051198</v>
+      </c>
+      <c r="F73">
+        <v>-0.02343889518173906</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1110782714342951</v>
+        <v>-0.09424462079297713</v>
       </c>
       <c r="C74">
-        <v>-0.005366566540332</v>
+        <v>0.0121727525192808</v>
       </c>
       <c r="D74">
-        <v>-0.04107373301309446</v>
+        <v>0.02082133444350218</v>
       </c>
       <c r="E74">
-        <v>-0.03284294708727706</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04912702322988725</v>
+      </c>
+      <c r="F74">
+        <v>-0.04913865856397844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.124068537170558</v>
+        <v>-0.1293512237985506</v>
       </c>
       <c r="C75">
-        <v>0.00752494159544176</v>
+        <v>0.02648595892949812</v>
       </c>
       <c r="D75">
-        <v>-0.05069928882499432</v>
+        <v>0.03423810816696114</v>
       </c>
       <c r="E75">
-        <v>-0.01824612748880922</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06112652331901838</v>
+      </c>
+      <c r="F75">
+        <v>-0.0121534917573075</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01498161510540926</v>
+        <v>-0.003173834226707376</v>
       </c>
       <c r="C76">
-        <v>-0.009332057798061467</v>
+        <v>0.0007668779170435199</v>
       </c>
       <c r="D76">
-        <v>0.0119007933415882</v>
+        <v>-0.002108259679041873</v>
       </c>
       <c r="E76">
-        <v>-0.01073581540055885</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0005247957055605447</v>
+      </c>
+      <c r="F76">
+        <v>-0.003819017494608439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08107107080816071</v>
+        <v>-0.07837904549920446</v>
       </c>
       <c r="C77">
-        <v>0.06004108332462847</v>
+        <v>0.008517186778413488</v>
       </c>
       <c r="D77">
-        <v>-0.1015712051294818</v>
+        <v>0.116646572610467</v>
       </c>
       <c r="E77">
-        <v>0.004996293414835001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.0392316828892578</v>
+      </c>
+      <c r="F77">
+        <v>-0.03363970272670389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09200767217804337</v>
+        <v>-0.1033320658032154</v>
       </c>
       <c r="C78">
-        <v>-0.1111845384992867</v>
+        <v>0.03973919045630383</v>
       </c>
       <c r="D78">
-        <v>-0.06663410965526691</v>
+        <v>0.1183211543967665</v>
       </c>
       <c r="E78">
-        <v>-0.1553028879564854</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.0818669935888718</v>
+      </c>
+      <c r="F78">
+        <v>-0.05983170648042645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1395390821526885</v>
+        <v>-0.1640213960887932</v>
       </c>
       <c r="C79">
-        <v>-0.01026652166024467</v>
+        <v>0.02051073652140287</v>
       </c>
       <c r="D79">
-        <v>-0.06764908602693771</v>
+        <v>0.01956914511045954</v>
       </c>
       <c r="E79">
-        <v>-0.00230230252371652</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.0500938079448016</v>
+      </c>
+      <c r="F79">
+        <v>-0.002934094962688017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08438075407229934</v>
+        <v>-0.08083773274369563</v>
       </c>
       <c r="C80">
-        <v>0.05436073690830451</v>
+        <v>-0.0008294566524585678</v>
       </c>
       <c r="D80">
-        <v>-0.05362859803044417</v>
+        <v>0.05567099721215957</v>
       </c>
       <c r="E80">
-        <v>-0.0667971811024639</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03597039810101867</v>
+      </c>
+      <c r="F80">
+        <v>0.02337670863516104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1433059296016746</v>
+        <v>-0.1230934153855273</v>
       </c>
       <c r="C81">
-        <v>0.003449802647707366</v>
+        <v>0.0302795147210392</v>
       </c>
       <c r="D81">
-        <v>-0.06826940762504939</v>
+        <v>0.01742159851293986</v>
       </c>
       <c r="E81">
-        <v>-0.02917861952886562</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06047664558206919</v>
+      </c>
+      <c r="F81">
+        <v>-0.008199553693797034</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1682798373366715</v>
+        <v>-0.1646169129592605</v>
       </c>
       <c r="C82">
-        <v>0.03177299169318978</v>
+        <v>0.02254119196026003</v>
       </c>
       <c r="D82">
-        <v>-0.04752393597646713</v>
+        <v>0.01184276955623256</v>
       </c>
       <c r="E82">
-        <v>-0.0251695551130501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0348339453748284</v>
+      </c>
+      <c r="F82">
+        <v>-0.0657020363733984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08035640994195818</v>
+        <v>-0.06237002269723939</v>
       </c>
       <c r="C83">
-        <v>0.03012174739736283</v>
+        <v>0.003041000680557632</v>
       </c>
       <c r="D83">
-        <v>-0.0355779394268429</v>
+        <v>0.0507696203131642</v>
       </c>
       <c r="E83">
-        <v>0.03665271729529614</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005388533669559952</v>
+      </c>
+      <c r="F83">
+        <v>0.04082839778350231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06899886069922234</v>
+        <v>-0.05870022162326043</v>
       </c>
       <c r="C84">
-        <v>0.01477443154252431</v>
+        <v>0.01056534742104628</v>
       </c>
       <c r="D84">
-        <v>-0.004211213725147218</v>
+        <v>0.06529169579932181</v>
       </c>
       <c r="E84">
-        <v>0.006811136990618119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.004352213360118942</v>
+      </c>
+      <c r="F84">
+        <v>-0.01074034586352652</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.128631173887489</v>
+        <v>-0.1388332090191758</v>
       </c>
       <c r="C85">
-        <v>0.0009979818949002112</v>
+        <v>0.02627527735119511</v>
       </c>
       <c r="D85">
-        <v>-0.03669277097876359</v>
+        <v>0.01485748958761248</v>
       </c>
       <c r="E85">
-        <v>-0.01484070796402702</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04170687273375567</v>
+      </c>
+      <c r="F85">
+        <v>-0.0432280567921202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1328861323179651</v>
+        <v>-0.0943346169049798</v>
       </c>
       <c r="C86">
-        <v>-0.2407181901030733</v>
+        <v>-0.006186341698211734</v>
       </c>
       <c r="D86">
-        <v>-0.222791407160635</v>
+        <v>0.0244618725462474</v>
       </c>
       <c r="E86">
-        <v>0.8840767434201943</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1571501708700392</v>
+      </c>
+      <c r="F86">
+        <v>0.8887185975965645</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1120737164797823</v>
+        <v>-0.09531339416852816</v>
       </c>
       <c r="C87">
-        <v>0.106061644838852</v>
+        <v>0.02192489685534025</v>
       </c>
       <c r="D87">
-        <v>-0.03293500825697233</v>
+        <v>0.09274677931970932</v>
       </c>
       <c r="E87">
-        <v>-0.0141182233789364</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05405667062922893</v>
+      </c>
+      <c r="F87">
+        <v>-0.07520492655433011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04736598916221716</v>
+        <v>-0.06092264397520484</v>
       </c>
       <c r="C88">
-        <v>-0.004690019472784547</v>
+        <v>0.002419517929257351</v>
       </c>
       <c r="D88">
-        <v>-0.02858853034512552</v>
+        <v>0.05362269670016789</v>
       </c>
       <c r="E88">
-        <v>-0.04011832896324809</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.0271362111160291</v>
+      </c>
+      <c r="F88">
+        <v>-0.007472391154845116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1393376313122097</v>
+        <v>-0.1362864034552889</v>
       </c>
       <c r="C89">
-        <v>-0.2035663081254131</v>
+        <v>0.009705264351156245</v>
       </c>
       <c r="D89">
-        <v>0.3098777060457765</v>
+        <v>-0.2535085314193523</v>
       </c>
       <c r="E89">
-        <v>0.002291314428123789</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.09066281385297667</v>
+      </c>
+      <c r="F89">
+        <v>-0.01419528426637684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1045025373897988</v>
+        <v>-0.1486722430149426</v>
       </c>
       <c r="C90">
-        <v>-0.1598762178431586</v>
+        <v>0.02757379324361754</v>
       </c>
       <c r="D90">
-        <v>0.2477745946488772</v>
+        <v>-0.2660690398362293</v>
       </c>
       <c r="E90">
-        <v>-0.004685216213656642</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.11049937205269</v>
+      </c>
+      <c r="F90">
+        <v>-0.01597144603733056</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08784021095411372</v>
+        <v>-0.1195953092461375</v>
       </c>
       <c r="C91">
-        <v>-0.002461153330614513</v>
+        <v>0.01694792001453754</v>
       </c>
       <c r="D91">
-        <v>-0.03163587162348626</v>
+        <v>-0.009131780267208652</v>
       </c>
       <c r="E91">
-        <v>0.005460350325911425</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05808710911341865</v>
+      </c>
+      <c r="F91">
+        <v>0.01525032869709885</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1238420275330964</v>
+        <v>-0.1504982141811383</v>
       </c>
       <c r="C92">
-        <v>-0.1625474806855351</v>
+        <v>0.01916450522636489</v>
       </c>
       <c r="D92">
-        <v>0.2831546409215594</v>
+        <v>-0.2923390646155745</v>
       </c>
       <c r="E92">
-        <v>0.004204544955732799</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1050024616781981</v>
+      </c>
+      <c r="F92">
+        <v>-0.008469433764071756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1043895437434651</v>
+        <v>-0.1525364404198969</v>
       </c>
       <c r="C93">
-        <v>-0.1798177048504409</v>
+        <v>0.02357610351327628</v>
       </c>
       <c r="D93">
-        <v>0.276868441063004</v>
+        <v>-0.2654228219426112</v>
       </c>
       <c r="E93">
-        <v>0.009746820665481548</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07849693510814293</v>
+      </c>
+      <c r="F93">
+        <v>-0.01715801777842484</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1460646875000233</v>
+        <v>-0.1325773772974351</v>
       </c>
       <c r="C94">
-        <v>-0.0002714313455979396</v>
+        <v>0.02358824272096782</v>
       </c>
       <c r="D94">
-        <v>-0.04000581152902544</v>
+        <v>0.0455553710881029</v>
       </c>
       <c r="E94">
-        <v>-0.065257244672418</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06108844792045091</v>
+      </c>
+      <c r="F94">
+        <v>-0.03267836838073745</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1154326930591624</v>
+        <v>-0.1256546590112234</v>
       </c>
       <c r="C95">
-        <v>0.003817211573261682</v>
+        <v>0.004660802054100525</v>
       </c>
       <c r="D95">
-        <v>-0.04292796417490972</v>
+        <v>0.09106142681645284</v>
       </c>
       <c r="E95">
-        <v>-0.04390199631474451</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04542069743312617</v>
+      </c>
+      <c r="F95">
+        <v>0.00986814998373906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01533967707787836</v>
+        <v>-0.0988305428299782</v>
       </c>
       <c r="C96">
-        <v>0.002514147948622667</v>
+        <v>-0.988814379543111</v>
       </c>
       <c r="D96">
-        <v>-0.001030337343545376</v>
+        <v>-0.03523535333115813</v>
       </c>
       <c r="E96">
-        <v>-0.001977337080835602</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05774445009256614</v>
+      </c>
+      <c r="F96">
+        <v>-0.04405288757458477</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1725363166361119</v>
+        <v>-0.1903077642269875</v>
       </c>
       <c r="C97">
-        <v>-0.03811483046852583</v>
+        <v>-0.009323698465065764</v>
       </c>
       <c r="D97">
-        <v>-0.03094141705849692</v>
+        <v>-0.01766932498995987</v>
       </c>
       <c r="E97">
-        <v>-0.04692273962553948</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.01237037410851105</v>
+      </c>
+      <c r="F97">
+        <v>0.1277872542923531</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2519392691579733</v>
+        <v>-0.2051511676538021</v>
       </c>
       <c r="C98">
-        <v>0.01950580799941311</v>
+        <v>0.007202039089433273</v>
       </c>
       <c r="D98">
-        <v>0.02940035740375835</v>
+        <v>0.01087303871607358</v>
       </c>
       <c r="E98">
-        <v>0.1108656299714401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09497057165250099</v>
+      </c>
+      <c r="F98">
+        <v>0.1082650148397478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04821005588856651</v>
+        <v>-0.05544213553200193</v>
       </c>
       <c r="C99">
-        <v>-0.01978705482285473</v>
+        <v>-0.004335009262692198</v>
       </c>
       <c r="D99">
-        <v>0.001243784677032802</v>
+        <v>0.03774512887888422</v>
       </c>
       <c r="E99">
-        <v>-0.04812959987207867</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02525964442836813</v>
+      </c>
+      <c r="F99">
+        <v>-0.004121069848593619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1289030672182886</v>
+        <v>-0.1229344865080857</v>
       </c>
       <c r="C100">
-        <v>0.7868766807646966</v>
+        <v>-0.05204487644784032</v>
       </c>
       <c r="D100">
-        <v>0.4694993742572157</v>
+        <v>0.3489011307271929</v>
       </c>
       <c r="E100">
-        <v>0.2699946589326284</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8928230783664567</v>
+      </c>
+      <c r="F100">
+        <v>0.08339609276728036</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02742079746497019</v>
+        <v>-0.02718803895150685</v>
       </c>
       <c r="C101">
-        <v>0.0107523573974904</v>
+        <v>0.008324176576807629</v>
       </c>
       <c r="D101">
-        <v>-0.0007790190686952953</v>
+        <v>0.03117650400495475</v>
       </c>
       <c r="E101">
-        <v>-0.01061701897303648</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01091802875029932</v>
+      </c>
+      <c r="F101">
+        <v>0.01391101814541879</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
